--- a/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D440D6C2-FDFD-4BB2-8E5C-29991993DC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5831AD7A-184A-47DB-90D5-74BA0B4A623F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F473CA96-CF11-426D-85AB-C7BB02522CB5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50B6A646-158E-4071-B581-15B145109F40}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,658 +74,664 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>53,03%</t>
   </si>
   <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>11,65%</t>
@@ -734,85 +740,91 @@
     <t>10,39%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>11,35%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>15,22%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>21,85%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>57,46%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2513E70-32AD-495A-A250-BE2162E2C46B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3853069-62E3-430D-A491-AB0790778681}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1614,7 +1626,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -1623,13 +1635,13 @@
         <v>32440</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -1638,13 +1650,13 @@
         <v>48498</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1671,13 @@
         <v>19154</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -1871,7 +1883,7 @@
         <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -1880,13 +1892,13 @@
         <v>51034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -1895,13 +1907,13 @@
         <v>88148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1928,13 @@
         <v>37646</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -1931,28 +1943,28 @@
         <v>46465</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>103</v>
       </c>
       <c r="N15" s="7">
-        <v>84110</v>
+        <v>84111</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1979,13 @@
         <v>82701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
@@ -1982,13 +1994,13 @@
         <v>124631</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -1997,13 +2009,13 @@
         <v>207332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,13 +2030,13 @@
         <v>397781</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>516</v>
@@ -2033,13 +2045,13 @@
         <v>361346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>908</v>
@@ -2048,13 +2060,13 @@
         <v>759127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,7 +2108,7 @@
         <v>1390</v>
       </c>
       <c r="N18" s="7">
-        <v>1138717</v>
+        <v>1138718</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2110,7 +2122,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2122,13 +2134,13 @@
         <v>44939</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -2137,13 +2149,13 @@
         <v>84806</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
@@ -2152,13 +2164,13 @@
         <v>129745</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,10 +2188,10 @@
         <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
@@ -2188,13 +2200,13 @@
         <v>90014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -2203,7 +2215,7 @@
         <v>137911</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>138</v>
@@ -2436,7 +2448,7 @@
         <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
@@ -2445,13 +2457,13 @@
         <v>91639</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>200</v>
@@ -2460,10 +2472,10 @@
         <v>133904</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>175</v>
@@ -2481,13 +2493,13 @@
         <v>122686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>257</v>
@@ -2496,13 +2508,13 @@
         <v>141167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>400</v>
@@ -2511,13 +2523,13 @@
         <v>263853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2544,13 @@
         <v>376271</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>454</v>
@@ -2547,13 +2559,13 @@
         <v>273469</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>864</v>
@@ -2562,13 +2574,13 @@
         <v>649739</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2636,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2636,13 +2648,13 @@
         <v>81050</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>281</v>
@@ -2651,13 +2663,13 @@
         <v>163333</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>402</v>
@@ -2666,13 +2678,13 @@
         <v>244383</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2699,13 @@
         <v>65587</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>200</v>
@@ -2702,13 +2714,13 @@
         <v>108457</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>298</v>
@@ -2720,10 +2732,10 @@
         <v>69</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2750,13 @@
         <v>146922</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>493</v>
@@ -2753,13 +2765,13 @@
         <v>244052</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>715</v>
@@ -2768,13 +2780,13 @@
         <v>390974</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2801,13 @@
         <v>404196</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>732</v>
@@ -2804,13 +2816,13 @@
         <v>509645</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>1319</v>
@@ -2819,13 +2831,13 @@
         <v>913841</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2849,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2893,13 +2905,13 @@
         <v>250409</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>657</v>
@@ -2908,13 +2920,13 @@
         <v>443123</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="M34" s="7">
         <v>929</v>
@@ -2923,13 +2935,13 @@
         <v>693532</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,10 +2959,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>591</v>
@@ -2959,13 +2971,13 @@
         <v>392680</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>838</v>
@@ -2974,13 +2986,13 @@
         <v>616630</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3007,13 @@
         <v>563134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>1311</v>
@@ -3010,13 +3022,13 @@
         <v>782173</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>1954</v>
@@ -3025,13 +3037,13 @@
         <v>1345307</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3058,13 @@
         <v>2344649</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>2801</v>
@@ -3061,13 +3073,13 @@
         <v>2185675</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>5012</v>
@@ -3076,13 +3088,13 @@
         <v>4530324</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3150,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5831AD7A-184A-47DB-90D5-74BA0B4A623F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED882DE-B8EE-4CE6-B0CD-6E04616AB4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50B6A646-158E-4071-B581-15B145109F40}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5CDD29B-2F7A-495E-B711-D5687D6732A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3853069-62E3-430D-A491-AB0790778681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCC5C2C-7C63-49FD-B688-D386E8F025FD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED882DE-B8EE-4CE6-B0CD-6E04616AB4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8E740B-1F73-4C48-895A-5B9160C49803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5CDD29B-2F7A-495E-B711-D5687D6732A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EC2F6BD-3257-4F0F-A9B3-2E8B5AA4FA12}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="260">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -95,7 +95,7 @@
     <t>2,89%</t>
   </si>
   <si>
-    <t>8,01%</t>
+    <t>8,0%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,412 +104,412 @@
     <t>3,02%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>15,48%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>20,7%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>68,7%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>53,74%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
   </si>
   <si>
     <t>61,1%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -518,28 +518,28 @@
     <t>9,66%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>7,05%</t>
@@ -548,76 +548,73 @@
     <t>5,25%</t>
   </si>
   <si>
+    <t>9,26%</t>
+  </si>
+  <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>62,81%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
   </si>
   <si>
     <t>46,02%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -626,112 +623,109 @@
     <t>11,62%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
   </si>
   <si>
     <t>53,03%</t>
   </si>
   <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>11,65%</t>
@@ -740,91 +734,85 @@
     <t>10,39%</t>
   </si>
   <si>
+    <t>12,65%</t>
+  </si>
+  <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>11,35%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>15,22%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>21,85%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>57,46%</t>
   </si>
   <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCC5C2C-7C63-49FD-B688-D386E8F025FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CFAB82-D8AE-40E1-AF94-B8B192479650}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,7 +1614,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -1635,13 +1623,13 @@
         <v>32440</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -1650,13 +1638,13 @@
         <v>48498</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1659,13 @@
         <v>19154</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -1883,7 +1871,7 @@
         <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -1892,13 +1880,13 @@
         <v>51034</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -1907,13 +1895,13 @@
         <v>88148</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1916,13 @@
         <v>37646</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -1943,28 +1931,28 @@
         <v>46465</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>103</v>
       </c>
       <c r="N15" s="7">
-        <v>84111</v>
+        <v>84110</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1967,13 @@
         <v>82701</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
@@ -1994,13 +1982,13 @@
         <v>124631</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -2009,13 +1997,13 @@
         <v>207332</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2018,13 @@
         <v>397781</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>516</v>
@@ -2045,13 +2033,13 @@
         <v>361346</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>908</v>
@@ -2060,13 +2048,13 @@
         <v>759127</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,7 +2096,7 @@
         <v>1390</v>
       </c>
       <c r="N18" s="7">
-        <v>1138718</v>
+        <v>1138717</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2122,7 +2110,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2134,13 +2122,13 @@
         <v>44939</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -2149,13 +2137,13 @@
         <v>84806</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
@@ -2164,13 +2152,13 @@
         <v>129745</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,10 +2176,10 @@
         <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
@@ -2200,13 +2188,13 @@
         <v>90014</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -2215,7 +2203,7 @@
         <v>137911</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>138</v>
@@ -2448,7 +2436,7 @@
         <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
@@ -2457,13 +2445,13 @@
         <v>91639</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>200</v>
@@ -2472,10 +2460,10 @@
         <v>133904</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>175</v>
@@ -2493,13 +2481,13 @@
         <v>122686</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>257</v>
@@ -2508,13 +2496,13 @@
         <v>141167</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>400</v>
@@ -2523,13 +2511,13 @@
         <v>263853</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2532,13 @@
         <v>376271</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>454</v>
@@ -2559,13 +2547,13 @@
         <v>273469</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>864</v>
@@ -2574,13 +2562,13 @@
         <v>649739</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2624,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2636,13 @@
         <v>81050</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>281</v>
@@ -2663,13 +2651,13 @@
         <v>163333</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>402</v>
@@ -2678,13 +2666,13 @@
         <v>244383</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2687,13 @@
         <v>65587</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>200</v>
@@ -2714,13 +2702,13 @@
         <v>108457</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>298</v>
@@ -2732,10 +2720,10 @@
         <v>69</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2738,13 @@
         <v>146922</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>493</v>
@@ -2765,13 +2753,13 @@
         <v>244052</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>715</v>
@@ -2780,13 +2768,13 @@
         <v>390974</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2789,13 @@
         <v>404196</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>732</v>
@@ -2816,13 +2804,13 @@
         <v>509645</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>1319</v>
@@ -2831,13 +2819,13 @@
         <v>913841</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2837,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2905,13 +2893,13 @@
         <v>250409</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>657</v>
@@ -2920,13 +2908,13 @@
         <v>443123</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M34" s="7">
         <v>929</v>
@@ -2935,13 +2923,13 @@
         <v>693532</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,10 +2947,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>591</v>
@@ -2971,13 +2959,13 @@
         <v>392680</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>838</v>
@@ -2986,13 +2974,13 @@
         <v>616630</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +2995,13 @@
         <v>563134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="H36" s="7">
         <v>1311</v>
@@ -3022,13 +3010,13 @@
         <v>782173</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M36" s="7">
         <v>1954</v>
@@ -3037,13 +3025,13 @@
         <v>1345307</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3046,13 @@
         <v>2344649</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>2801</v>
@@ -3073,13 +3061,13 @@
         <v>2185675</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>5012</v>
@@ -3088,13 +3076,13 @@
         <v>4530324</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3138,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8E740B-1F73-4C48-895A-5B9160C49803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{656263AE-3E86-4CAB-8E8E-42B9C052EBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EC2F6BD-3257-4F0F-A9B3-2E8B5AA4FA12}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AB5FB689-9241-4810-807F-20DA5BEE91FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="296">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -65,754 +65,862 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,8 +1335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CFAB82-D8AE-40E1-AF94-B8B192479650}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A39E4-3AB0-48B5-934E-16E5C1AE28C3}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1348,7 +1456,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>13389</v>
+        <v>14514</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1363,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>23483</v>
+        <v>21122</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1378,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>36873</v>
+        <v>35636</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1399,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>11402</v>
+        <v>11439</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1414,7 +1522,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>19553</v>
+        <v>17388</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1429,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>30956</v>
+        <v>28827</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1438,109 +1546,109 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>33770</v>
+        <v>33363</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>33791</v>
+        <v>30040</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
       </c>
       <c r="N6" s="7">
-        <v>67561</v>
+        <v>63403</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>145</v>
       </c>
       <c r="D7" s="7">
-        <v>319117</v>
+        <v>340670</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
       </c>
       <c r="I7" s="7">
-        <v>278130</v>
+        <v>244650</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>308</v>
       </c>
       <c r="N7" s="7">
-        <v>597246</v>
+        <v>585320</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,51 +1660,51 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1605,46 +1713,46 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>16057</v>
+        <v>15200</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>32440</v>
+        <v>28406</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
       </c>
       <c r="N9" s="7">
-        <v>48498</v>
+        <v>43607</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,148 +1764,148 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>19154</v>
+        <v>19552</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>36552</v>
+        <v>34822</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>55705</v>
+        <v>54374</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>43285</v>
+        <v>42308</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
       </c>
       <c r="I11" s="7">
-        <v>67864</v>
+        <v>61303</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
       </c>
       <c r="N11" s="7">
-        <v>111149</v>
+        <v>103611</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>238</v>
       </c>
       <c r="D12" s="7">
-        <v>349900</v>
+        <v>346487</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>328</v>
       </c>
       <c r="I12" s="7">
-        <v>361721</v>
+        <v>386972</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>566</v>
       </c>
       <c r="N12" s="7">
-        <v>711621</v>
+        <v>733459</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,51 +1917,51 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1862,22 +1970,22 @@
         <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>37114</v>
+        <v>34832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
       </c>
       <c r="I14" s="7">
-        <v>51034</v>
+        <v>47375</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1892,7 +2000,7 @@
         <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>88148</v>
+        <v>82207</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -1913,7 +2021,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>37646</v>
+        <v>36313</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>96</v>
@@ -1928,133 +2036,133 @@
         <v>69</v>
       </c>
       <c r="I15" s="7">
-        <v>46465</v>
+        <v>43016</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>103</v>
       </c>
       <c r="N15" s="7">
-        <v>84110</v>
+        <v>79329</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>86</v>
       </c>
       <c r="D16" s="7">
-        <v>82701</v>
+        <v>79128</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
       </c>
       <c r="I16" s="7">
-        <v>124631</v>
+        <v>114696</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
       </c>
       <c r="N16" s="7">
-        <v>207332</v>
+        <v>193824</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>392</v>
       </c>
       <c r="D17" s="7">
-        <v>397781</v>
+        <v>384081</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>516</v>
       </c>
       <c r="I17" s="7">
-        <v>361346</v>
+        <v>337380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>908</v>
       </c>
       <c r="N17" s="7">
-        <v>759127</v>
+        <v>721461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,51 +2174,51 @@
         <v>544</v>
       </c>
       <c r="D18" s="7">
-        <v>555242</v>
+        <v>534353</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1390</v>
       </c>
       <c r="N18" s="7">
-        <v>1138717</v>
+        <v>1076821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2119,46 +2227,46 @@
         <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>44939</v>
+        <v>41665</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
       </c>
       <c r="I19" s="7">
-        <v>84806</v>
+        <v>77538</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
       </c>
       <c r="N19" s="7">
-        <v>129745</v>
+        <v>119203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,148 +2278,148 @@
         <v>48</v>
       </c>
       <c r="D20" s="7">
-        <v>47896</v>
+        <v>45823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
       </c>
       <c r="I20" s="7">
-        <v>90014</v>
+        <v>81299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
       </c>
       <c r="N20" s="7">
-        <v>137911</v>
+        <v>127122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>139</v>
       </c>
       <c r="D21" s="7">
-        <v>133770</v>
+        <v>130951</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>279</v>
       </c>
       <c r="I21" s="7">
-        <v>170668</v>
+        <v>156862</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>418</v>
       </c>
       <c r="N21" s="7">
-        <v>304438</v>
+        <v>287814</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>439</v>
       </c>
       <c r="D22" s="7">
-        <v>497385</v>
+        <v>669347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>608</v>
       </c>
       <c r="I22" s="7">
-        <v>401365</v>
+        <v>396799</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>1047</v>
       </c>
       <c r="N22" s="7">
-        <v>898750</v>
+        <v>1066146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,51 +2431,51 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>1140</v>
       </c>
       <c r="I23" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1805</v>
       </c>
       <c r="N23" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2376,46 +2484,46 @@
         <v>63</v>
       </c>
       <c r="D24" s="7">
-        <v>57859</v>
+        <v>51768</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>136</v>
       </c>
       <c r="I24" s="7">
-        <v>88026</v>
+        <v>78779</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>199</v>
       </c>
       <c r="N24" s="7">
-        <v>145885</v>
+        <v>130547</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,148 +2535,148 @@
         <v>46</v>
       </c>
       <c r="D25" s="7">
-        <v>42264</v>
+        <v>39852</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
       </c>
       <c r="I25" s="7">
-        <v>91639</v>
+        <v>83809</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>200</v>
       </c>
       <c r="N25" s="7">
-        <v>133904</v>
+        <v>123661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>143</v>
       </c>
       <c r="D26" s="7">
-        <v>122686</v>
+        <v>113581</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>257</v>
       </c>
       <c r="I26" s="7">
-        <v>141167</v>
+        <v>129716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>400</v>
       </c>
       <c r="N26" s="7">
-        <v>263853</v>
+        <v>243296</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>410</v>
       </c>
       <c r="D27" s="7">
-        <v>376271</v>
+        <v>355003</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>454</v>
       </c>
       <c r="I27" s="7">
-        <v>273469</v>
+        <v>253263</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>864</v>
       </c>
       <c r="N27" s="7">
-        <v>649739</v>
+        <v>608266</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,99 +2688,99 @@
         <v>662</v>
       </c>
       <c r="D28" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>1001</v>
       </c>
       <c r="I28" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>1663</v>
       </c>
       <c r="N28" s="7">
-        <v>1193381</v>
+        <v>1105770</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="D29" s="7">
-        <v>81050</v>
+        <v>33887</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="I29" s="7">
-        <v>163333</v>
+        <v>62919</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
-        <v>402</v>
+        <v>180</v>
       </c>
       <c r="N29" s="7">
-        <v>244383</v>
+        <v>96805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,151 +2789,151 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D30" s="7">
-        <v>65587</v>
+        <v>24792</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="H30" s="7">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="I30" s="7">
-        <v>108457</v>
+        <v>41267</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="N30" s="7">
-        <v>174044</v>
+        <v>66059</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="D31" s="7">
-        <v>146922</v>
+        <v>82071</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
-        <v>493</v>
+        <v>237</v>
       </c>
       <c r="I31" s="7">
-        <v>244052</v>
+        <v>109596</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
-        <v>715</v>
+        <v>365</v>
       </c>
       <c r="N31" s="7">
-        <v>390974</v>
+        <v>191667</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
-        <v>587</v>
+        <v>346</v>
       </c>
       <c r="D32" s="7">
-        <v>404196</v>
+        <v>227415</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
-        <v>732</v>
+        <v>382</v>
       </c>
       <c r="I32" s="7">
-        <v>509645</v>
+        <v>394587</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
-        <v>1319</v>
+        <v>728</v>
       </c>
       <c r="N32" s="7">
-        <v>913841</v>
+        <v>622001</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,102 +2942,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I33" s="7">
-        <v>1025487</v>
+        <v>608368</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N33" s="7">
-        <v>1723242</v>
+        <v>976533</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>272</v>
+        <v>64</v>
       </c>
       <c r="D34" s="7">
-        <v>250409</v>
+        <v>38279</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
-        <v>657</v>
+        <v>158</v>
       </c>
       <c r="I34" s="7">
-        <v>443123</v>
+        <v>79538</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
-        <v>929</v>
+        <v>222</v>
       </c>
       <c r="N34" s="7">
-        <v>693532</v>
+        <v>117817</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,151 +3046,151 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="D35" s="7">
-        <v>223950</v>
+        <v>34891</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="7">
+        <v>115</v>
+      </c>
+      <c r="I35" s="7">
+        <v>55677</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" s="7">
+        <v>174</v>
+      </c>
+      <c r="N35" s="7">
+        <v>90568</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H35" s="7">
-        <v>591</v>
-      </c>
-      <c r="I35" s="7">
-        <v>392680</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M35" s="7">
-        <v>838</v>
-      </c>
-      <c r="N35" s="7">
-        <v>616630</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>643</v>
+        <v>94</v>
       </c>
       <c r="D36" s="7">
-        <v>563134</v>
+        <v>54269</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
-        <v>1311</v>
+        <v>256</v>
       </c>
       <c r="I36" s="7">
-        <v>782173</v>
+        <v>113802</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
-        <v>1954</v>
+        <v>350</v>
       </c>
       <c r="N36" s="7">
-        <v>1345307</v>
+        <v>168071</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>2211</v>
+        <v>241</v>
       </c>
       <c r="D37" s="7">
-        <v>2344649</v>
+        <v>155320</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
-        <v>2801</v>
+        <v>350</v>
       </c>
       <c r="I37" s="7">
-        <v>2185675</v>
+        <v>175761</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
-        <v>5012</v>
+        <v>591</v>
       </c>
       <c r="N37" s="7">
-        <v>4530324</v>
+        <v>331081</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,63 +3199,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="7">
+        <v>879</v>
+      </c>
+      <c r="I38" s="7">
+        <v>424778</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N38" s="7">
+        <v>707537</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>272</v>
+      </c>
+      <c r="D39" s="7">
+        <v>230145</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="7">
+        <v>657</v>
+      </c>
+      <c r="I39" s="7">
+        <v>395677</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" s="7">
+        <v>929</v>
+      </c>
+      <c r="N39" s="7">
+        <v>625822</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>247</v>
+      </c>
+      <c r="D40" s="7">
+        <v>212662</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" s="7">
+        <v>591</v>
+      </c>
+      <c r="I40" s="7">
+        <v>357278</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M40" s="7">
+        <v>838</v>
+      </c>
+      <c r="N40" s="7">
+        <v>569940</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7">
+        <v>643</v>
+      </c>
+      <c r="D41" s="7">
+        <v>535671</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1311</v>
+      </c>
+      <c r="I41" s="7">
+        <v>716015</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1954</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1251686</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2211</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2478324</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2801</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2189412</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M42" s="7">
+        <v>5012</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4667736</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3373</v>
       </c>
-      <c r="D38" s="7">
-        <v>3382141</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3456802</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="7">
         <v>5360</v>
       </c>
-      <c r="I38" s="7">
-        <v>3803652</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3658381</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="7">
         <v>8733</v>
       </c>
-      <c r="N38" s="7">
-        <v>7185793</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>259</v>
+      <c r="N43" s="7">
+        <v>7115184</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente cansado cuando despierta por la mañana en 2023</t>
+          <t>Población según la frecuencia con la que se siente cansado cuando despierta por la mañana en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
